--- a/dMagMemoryAndProcessTrack.xlsx
+++ b/dMagMemoryAndProcessTrack.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t xml:space="preserve">Computer memory is defined with respect to C conventions, Python conventions may blow these up</t>
   </si>
@@ -242,14 +242,21 @@
   </si>
   <si>
     <t xml:space="preserve">If I known dMagLim as a function of time, I should be able to reformat v1,v2 as functions of time Over a limited range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To make this broadly applicable to many stars, we will need to encode the delta d of these v3,v4,v5,v6 limits. That is, the distance classification for which the solution space changes (i.e. v1,v2 added or subtracted) or v3,v4 cease to exist, or v5,v6 cease to exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this, it may be benificial to break down stars by binned groupings. For close stars, make the calculations unique, but for further stars, bin the IWA and OWA calculations. i.e. closes 10 stars each have their own bins, then divide 100 bins among the remaining out to 30pc. Lets say this could all be done with less than 100 different bins, this means (possibly) 100*4*8*10^8 v3 v4 v5 v6 edges to calculate…. Too much memory. Lets assume we can reduce this by 1 order of magnitude with our bit array indicating where we don’t need to calculate… that is acceptable but the bit savings must be good!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -315,7 +322,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,6 +333,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -345,10 +356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,22 +1379,54 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
+      <c r="E39" s="0" t="n">
+        <f aca="false">E38+D39</f>
+        <v>17900000072</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">$E$2-E39</f>
+        <v>246099999928</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
+      <c r="E40" s="0" t="n">
+        <f aca="false">E39+D40</f>
+        <v>17900000072</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">$E$2-E40</f>
+        <v>246099999928</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
+      <c r="E41" s="0" t="n">
+        <f aca="false">E40+D41</f>
+        <v>17900000072</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">$E$2-E41</f>
+        <v>246099999928</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0" t="n">
+        <f aca="false">E41+D42</f>
+        <v>17900000072</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">$E$2-E42</f>
+        <v>246099999928</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
@@ -1391,15 +1434,95 @@
         <f aca="false">8*10^8</f>
         <v>800000000</v>
       </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">E42+D43</f>
+        <v>18700000072</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">$E$2-E43</f>
+        <v>245299999928</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="E44" s="0" t="n">
+        <f aca="false">E43+D44</f>
+        <v>18700000072</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">$E$2-E44</f>
+        <v>245299999928</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">E44+D45</f>
+        <v>18700000072</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">$E$2-E45</f>
+        <v>245299999928</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2"/>
+      <c r="E46" s="0" t="n">
+        <f aca="false">E45+D46</f>
+        <v>18700000072</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">$E$2-E46</f>
+        <v>245299999928</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">E46+D47</f>
+        <v>18700000072</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">$E$2-E47</f>
+        <v>245299999928</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">100*8*4*10^8</f>
+        <v>320000000000</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">E47+D48</f>
+        <v>338700000072</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">$E$2-E48</f>
+        <v>-74700000072</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="0" t="n">
+        <f aca="false">10*8*4*10^8</f>
+        <v>32000000000</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">E47+D49</f>
+        <v>50700000072</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">$E$2-E49</f>
+        <v>213299999928</v>
       </c>
     </row>
   </sheetData>

--- a/dMagMemoryAndProcessTrack.xlsx
+++ b/dMagMemoryAndProcessTrack.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+  <si>
+    <t xml:space="preserve">nplan</t>
+  </si>
   <si>
     <t xml:space="preserve">Computer memory is defined with respect to C conventions, Python conventions may blow these up</t>
   </si>
@@ -178,6 +181,9 @@
     <t xml:space="preserve">Solve for M0 comp. Ineff.</t>
   </si>
   <si>
+    <t xml:space="preserve">Delete E0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calculate mu</t>
   </si>
   <si>
@@ -248,15 +254,35 @@
   </si>
   <si>
     <t xml:space="preserve">For this, it may be benificial to break down stars by binned groupings. For close stars, make the calculations unique, but for further stars, bin the IWA and OWA calculations. i.e. closes 10 stars each have their own bins, then divide 100 bins among the remaining out to 30pc. Lets say this could all be done with less than 100 different bins, this means (possibly) 100*4*8*10^8 v3 v4 v5 v6 edges to calculate…. Too much memory. Lets assume we can reduce this by 1 order of magnitude with our bit array indicating where we don’t need to calculate… that is acceptable but the bit savings must be good!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if we calculate the time each planet is in the visible range (t2-t1) or something like that and use these times to calculate completeness???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Dynamic Completeness, this simply becomes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove all previously detectable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate (0.5*dt_exit1+0.5*dt_exit2) to get the average time until the planets leave FoV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate (dt_enter1*0.5+dt_enter2*0.5) to get average time until the planet enters FoV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -322,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,10 +359,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -356,10 +378,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -396,26 +418,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <f aca="false">10^7</f>
+        <v>10000000</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">33*10^9*8</f>
         <v>264000000000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -437,191 +466,205 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="0" t="n">
-        <f aca="false">8*10^8</f>
-        <v>800000000</v>
+        <f aca="false">8*8*$C$1</f>
+        <v>640000000</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">D4</f>
-        <v>800000000</v>
+        <v>640000000</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">$E$2-E4</f>
-        <v>263200000000</v>
+        <v>263360000000</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="0" t="n">
-        <v>8</v>
+        <f aca="false">8*8</f>
+        <v>64</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">D5+E4</f>
-        <v>800000008</v>
+        <v>640000064</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">$E$2-E5</f>
-        <v>263199999992</v>
+        <v>263359999936</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="0" t="n">
-        <v>8</v>
+        <f aca="false">8*8</f>
+        <v>64</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
-        <v>800000016</v>
+        <v>640000128</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">$E$2-E6</f>
-        <v>263199999984</v>
+        <v>263359999872</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="0" t="n">
-        <f aca="false">2*8*10^8</f>
-        <v>1600000000</v>
+        <f aca="false">2*8*8*$C$1</f>
+        <v>1280000000</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>2400000016</v>
+        <v>1920000128</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">$E$2-E7</f>
-        <v>261599999984</v>
+        <v>262079999872</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>1</v>
@@ -632,23 +675,23 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="0" t="n">
-        <f aca="false">6*8*10^8</f>
-        <v>4800000000</v>
+        <f aca="false">6*8*8*$C$1</f>
+        <v>3840000000</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>7200000016</v>
+        <v>5760000128</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">$E$2-E8</f>
-        <v>256799999984</v>
+        <v>258239999872</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1</v>
@@ -671,43 +714,44 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="0" t="n">
-        <v>8</v>
+        <f aca="false">8*8</f>
+        <v>64</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">E8+D9</f>
-        <v>7200000024</v>
+        <v>5760000192</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">$E$2-E9</f>
-        <v>256799999976</v>
+        <v>258239999808</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="0" t="n">
-        <f aca="false">8*10^8</f>
-        <v>800000000</v>
+        <f aca="false">8*8*$C$1</f>
+        <v>640000000</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">E9+D10</f>
-        <v>8000000024</v>
+        <v>6400000192</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">$E$2-E10</f>
-        <v>255999999976</v>
+        <v>257599999808</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>2</v>
@@ -726,20 +770,24 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="0" t="n">
-        <v>8</v>
+        <f aca="false">8*8</f>
+        <v>64</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">E10+D11</f>
-        <v>8000000032</v>
+        <v>6400000256</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">$E$2-E11</f>
-        <v>255999999968</v>
+        <v>257599999744</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>2</v>
@@ -753,543 +801,608 @@
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="0" t="n">
+        <f aca="false">1*$C$1</f>
+        <v>10000000</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">E11+D12</f>
+        <v>6410000256</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">$E$2-E12</f>
+        <v>257589999744</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">2*8*8*$C$1</f>
+        <v>1280000000</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">E12+D13</f>
+        <v>7690000256</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">$E$2-E13</f>
+        <v>256309999744</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="0" t="n">
+        <f aca="false">8*8*$C$1</f>
+        <v>640000000</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">E13+D14</f>
+        <v>8330000256</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">$E$2-E14</f>
+        <v>255669999744</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="0" t="n">
+        <f aca="false">8*8*$C$1</f>
+        <v>640000000</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">E14+D15</f>
+        <v>8970000256</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">$E$2-E15</f>
+        <v>255029999744</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="0" t="n">
+        <f aca="false">-D14</f>
+        <v>-640000000</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">E15+D16</f>
+        <v>8330000256</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">$E$2-E16</f>
+        <v>255669999744</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="0" t="n">
+        <f aca="false">8*8</f>
+        <v>64</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">E16+D17</f>
+        <v>8330000320</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">$E$2-E17</f>
+        <v>255669999680</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="0" t="n">
+        <f aca="false">8*8</f>
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">E17+D18</f>
+        <v>8330000384</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">$E$2-E18</f>
+        <v>255669999616</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="0" t="n">
+        <f aca="false">8*8*$C$1</f>
+        <v>640000000</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">E18+D19</f>
+        <v>8970000384</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">$E$2-E19</f>
+        <v>255029999616</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">$C$1</f>
+        <v>10000000</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">E19+D20</f>
+        <v>8980000384</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">$E$2-E20</f>
+        <v>255019999616</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="0" t="n">
+        <f aca="false">2*8*8*$C$1</f>
+        <v>1280000000</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">E20+D21</f>
+        <v>10260000384</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">$E$2-E21</f>
+        <v>253739999616</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="0" t="n">
+        <f aca="false">8*8</f>
+        <v>64</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">E21+D22</f>
+        <v>10260000448</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">$E$2-E22</f>
+        <v>253739999552</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="0" t="n">
+        <f aca="false">8*8*$C$1</f>
+        <v>640000000</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">E22+D23</f>
+        <v>10900000448</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">$E$2-E23</f>
+        <v>253099999552</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <f aca="false">1*10^8</f>
         <v>100000000</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">E11+D12</f>
-        <v>8100000032</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">$E$2-E12</f>
-        <v>255899999968</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">2*8*10^8</f>
-        <v>1600000000</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">E12+D13</f>
-        <v>9700000032</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">$E$2-E13</f>
-        <v>254299999968</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="0" t="n">
-        <f aca="false">8*10^8</f>
-        <v>800000000</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">E13+D14</f>
-        <v>10500000032</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">$E$2-E14</f>
-        <v>253499999968</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="0" t="n">
-        <f aca="false">8*10^8</f>
-        <v>800000000</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">E14+D15</f>
-        <v>11300000032</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <f aca="false">$E$2-E15</f>
-        <v>252699999968</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">E15+D16</f>
-        <v>11300000040</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">$E$2-E16</f>
-        <v>252699999960</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">E16+D17</f>
-        <v>11300000048</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <f aca="false">$E$2-E17</f>
-        <v>252699999952</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="0" t="n">
-        <f aca="false">8*10^8</f>
-        <v>800000000</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">E17+D18</f>
-        <v>12100000048</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">$E$2-E18</f>
-        <v>251899999952</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">10^8</f>
-        <v>100000000</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">E18+D19</f>
-        <v>12200000048</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">$E$2-E19</f>
-        <v>251799999952</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="0" t="n">
-        <f aca="false">2*8*10^8</f>
-        <v>1600000000</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">E19+D20</f>
-        <v>13800000048</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <f aca="false">$E$2-E20</f>
-        <v>250199999952</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">E20+D21</f>
-        <v>13800000056</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">$E$2-E21</f>
-        <v>250199999944</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="0" t="n">
-        <f aca="false">8*10^8</f>
-        <v>800000000</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">E21+D22</f>
-        <v>14600000056</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <f aca="false">$E$2-E22</f>
-        <v>249399999944</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <f aca="false">1*10^8</f>
-        <v>100000000</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">E22+D23</f>
-        <v>14700000056</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false">$E$2-E23</f>
-        <v>249299999944</v>
-      </c>
-      <c r="AE23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="0" t="n">
-        <f aca="false">2*8*10^8</f>
-        <v>1600000000</v>
-      </c>
       <c r="E24" s="0" t="n">
         <f aca="false">E23+D24</f>
-        <v>16300000056</v>
+        <v>11000000448</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">$E$2-E24</f>
-        <v>247699999944</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>2</v>
+        <v>252999999552</v>
       </c>
       <c r="AE24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AI24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="0" t="n">
-        <f aca="false">10*10^8</f>
-        <v>1000000000</v>
+        <f aca="false">2*8*8*$C$1</f>
+        <v>1280000000</v>
       </c>
       <c r="E25" s="0" t="n">
         <f aca="false">E24+D25</f>
-        <v>17300000056</v>
+        <v>12280000448</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">$E$2-E25</f>
-        <v>246699999944</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251719999552</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="0" t="n">
-        <f aca="false">6*10^8</f>
-        <v>600000000</v>
+        <f aca="false">10*$C$1</f>
+        <v>100000000</v>
       </c>
       <c r="E26" s="0" t="n">
         <f aca="false">E25+D26</f>
-        <v>17900000056</v>
+        <v>12380000448</v>
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">$E$2-E26</f>
-        <v>246099999944</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ26" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251619999552</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <f aca="false">6*8*8*$C$1</f>
+        <v>3840000000</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">E26+D27</f>
-        <v>17900000056</v>
+        <v>16220000448</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">$E$2-E27</f>
-        <v>246099999944</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247779999552</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">E27+D28</f>
-        <v>17900000064</v>
+        <v>16220000448</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">$E$2-E28</f>
-        <v>246099999936</v>
-      </c>
-      <c r="AK28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247779999552</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="0" t="n">
-        <v>8</v>
+        <f aca="false">8*8</f>
+        <v>64</v>
       </c>
       <c r="E29" s="0" t="n">
         <f aca="false">E28+D29</f>
-        <v>17900000072</v>
+        <v>16220000512</v>
       </c>
       <c r="F29" s="0" t="n">
         <f aca="false">$E$2-E29</f>
-        <v>246099999928</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247779999488</v>
+      </c>
+      <c r="AK29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2"/>
+      <c r="D30" s="0" t="n">
+        <f aca="false">8*8</f>
+        <v>64</v>
+      </c>
       <c r="E30" s="0" t="n">
         <f aca="false">E29+D30</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">$E$2-E30</f>
-        <v>246099999928</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2"/>
+        <v>247779999424</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="E31" s="0" t="n">
         <f aca="false">E30+D31</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F31" s="0" t="n">
         <f aca="false">$E$2-E31</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,11 +1410,11 @@
       <c r="C32" s="2"/>
       <c r="E32" s="0" t="n">
         <f aca="false">E31+D32</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F32" s="0" t="n">
         <f aca="false">$E$2-E32</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,11 +1422,11 @@
       <c r="C33" s="2"/>
       <c r="E33" s="0" t="n">
         <f aca="false">E32+D33</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F33" s="0" t="n">
         <f aca="false">$E$2-E33</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,11 +1434,11 @@
       <c r="C34" s="2"/>
       <c r="E34" s="0" t="n">
         <f aca="false">E33+D34</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F34" s="0" t="n">
         <f aca="false">$E$2-E34</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,11 +1446,11 @@
       <c r="C35" s="2"/>
       <c r="E35" s="0" t="n">
         <f aca="false">E34+D35</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F35" s="0" t="n">
         <f aca="false">$E$2-E35</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,11 +1458,11 @@
       <c r="C36" s="2"/>
       <c r="E36" s="0" t="n">
         <f aca="false">E35+D36</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F36" s="0" t="n">
         <f aca="false">$E$2-E36</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,11 +1470,11 @@
       <c r="C37" s="2"/>
       <c r="E37" s="0" t="n">
         <f aca="false">E36+D37</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F37" s="0" t="n">
         <f aca="false">$E$2-E37</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,11 +1482,11 @@
       <c r="C38" s="2"/>
       <c r="E38" s="0" t="n">
         <f aca="false">E37+D38</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">$E$2-E38</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,11 +1494,11 @@
       <c r="C39" s="2"/>
       <c r="E39" s="0" t="n">
         <f aca="false">E38+D39</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F39" s="0" t="n">
         <f aca="false">$E$2-E39</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,11 +1506,11 @@
       <c r="C40" s="2"/>
       <c r="E40" s="0" t="n">
         <f aca="false">E39+D40</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F40" s="0" t="n">
         <f aca="false">$E$2-E40</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,124 +1518,191 @@
       <c r="C41" s="2"/>
       <c r="E41" s="0" t="n">
         <f aca="false">E40+D41</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F41" s="0" t="n">
         <f aca="false">$E$2-E41</f>
-        <v>246099999928</v>
+        <v>247779999424</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="E42" s="0" t="n">
         <f aca="false">E41+D42</f>
-        <v>17900000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F42" s="0" t="n">
         <f aca="false">$E$2-E42</f>
-        <v>246099999928</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247779999424</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>39</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <f aca="false">8*10^8</f>
-        <v>800000000</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="E43" s="0" t="n">
         <f aca="false">E42+D43</f>
-        <v>18700000072</v>
+        <v>16220000576</v>
       </c>
       <c r="F43" s="0" t="n">
         <f aca="false">$E$2-E43</f>
-        <v>245299999928</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>72</v>
+        <v>247779999424</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">8*8*$C$1</f>
+        <v>640000000</v>
       </c>
       <c r="E44" s="0" t="n">
         <f aca="false">E43+D44</f>
-        <v>18700000072</v>
+        <v>16860000576</v>
       </c>
       <c r="F44" s="0" t="n">
         <f aca="false">$E$2-E44</f>
-        <v>245299999928</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>247139999424</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E45" s="0" t="n">
         <f aca="false">E44+D45</f>
-        <v>18700000072</v>
+        <v>16860000576</v>
       </c>
       <c r="F45" s="0" t="n">
         <f aca="false">$E$2-E45</f>
-        <v>245299999928</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2"/>
+        <v>247139999424</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E46" s="0" t="n">
         <f aca="false">E45+D46</f>
-        <v>18700000072</v>
+        <v>16860000576</v>
       </c>
       <c r="F46" s="0" t="n">
         <f aca="false">$E$2-E46</f>
-        <v>245299999928</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>247139999424</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="E47" s="0" t="n">
         <f aca="false">E46+D47</f>
-        <v>18700000072</v>
+        <v>16860000576</v>
       </c>
       <c r="F47" s="0" t="n">
         <f aca="false">$E$2-E47</f>
-        <v>245299999928</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
+        <v>247139999424</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>44</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <f aca="false">100*8*4*10^8</f>
-        <v>320000000000</v>
+        <v>76</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">E47+D48</f>
-        <v>338700000072</v>
+        <v>16860000576</v>
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">$E$2-E48</f>
-        <v>-74700000072</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247139999424</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D49" s="0" t="n">
-        <f aca="false">10*8*4*10^8</f>
-        <v>32000000000</v>
+        <f aca="false">100*8*8*4*$C$1</f>
+        <v>256000000000</v>
       </c>
       <c r="E49" s="0" t="n">
-        <f aca="false">E47+D49</f>
-        <v>50700000072</v>
+        <f aca="false">E48+D49</f>
+        <v>272860000576</v>
       </c>
       <c r="F49" s="0" t="n">
         <f aca="false">$E$2-E49</f>
-        <v>213299999928</v>
+        <v>-8860000576</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="0" t="n">
+        <f aca="false">10*8*4*$C$1</f>
+        <v>3200000000</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">E49+D50</f>
+        <v>276060000576</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">$E$2-E50</f>
+        <v>-12060000576</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/dMagMemoryAndProcessTrack.xlsx
+++ b/dMagMemoryAndProcessTrack.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="143">
   <si>
     <t xml:space="preserve">nplan</t>
   </si>
@@ -275,6 +276,180 @@
   </si>
   <si>
     <t xml:space="preserve">Calculate (dt_enter1*0.5+dt_enter2*0.5) to get average time until the planet enters FoV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rows of Eqn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term in row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^2y^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xy^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^2y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^3y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xy^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grouping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^2y^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^3y^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x^3y^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has negative?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90-180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180-270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270-360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why make the plus minus table above? Because now I will know which terms are positive and which terms are negative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we know all the term constants (see table above), we can know which of the terms are negative and positive so we may set them appropriately equal to one another</t>
   </si>
 </sst>
 </file>
@@ -289,6 +464,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -353,7 +529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:AK58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T8" activeCellId="0" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,13 +569,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.28"/>
@@ -407,10 +583,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="3.51"/>
@@ -1717,4 +1893,716 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <f aca="false">SUM(D10:AA10)</f>
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/dMagMemoryAndProcessTrack.xlsx
+++ b/dMagMemoryAndProcessTrack.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="144">
   <si>
     <t xml:space="preserve">nplan</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">Calculate (dt_enter1*0.5+dt_enter2*0.5) to get average time until the planet enters FoV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsbydnu</t>
   </si>
   <si>
     <t xml:space="preserve">term</t>
@@ -1902,8 +1905,8 @@
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1912,22 +1915,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -1956,82 +1962,82 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,76 +2045,76 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,76 +2122,76 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,114 +2199,114 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="M9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="P9" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2315,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -2365,235 +2371,235 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K17" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K18" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/dMagMemoryAndProcessTrack.xlsx
+++ b/dMagMemoryAndProcessTrack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -493,12 +493,68 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -527,8 +583,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,6 +606,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -559,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:AK58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T8" activeCellId="0" sqref="T8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -574,26 +662,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="2.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="1.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="37" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="38" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,142 +707,143 @@
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">33*10^9*8</f>
         <v>264000000000</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="X3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AA3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="AB3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="0" t="s">
+      <c r="AC3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="0" t="s">
+      <c r="AD3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="0" t="s">
+      <c r="AE3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="0" t="s">
+      <c r="AF3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AG3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="0" t="s">
+      <c r="AH3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="0" t="s">
+      <c r="AI3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="0" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="0" t="s">
+      <c r="AK3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -758,11 +851,11 @@
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="n">
         <f aca="false">8*8*$C$1</f>
         <v>640000000</v>
       </c>
@@ -770,23 +863,25 @@
         <f aca="false">D4</f>
         <v>640000000</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="7" t="n">
         <f aca="false">$E$2-E4</f>
         <v>263360000000</v>
       </c>
+      <c r="G4" s="6"/>
       <c r="N4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -794,23 +889,25 @@
         <f aca="false">D5+E4</f>
         <v>640000064</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="7" t="n">
         <f aca="false">$E$2-E5</f>
         <v>263359999936</v>
       </c>
+      <c r="G5" s="6"/>
       <c r="S5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -818,13 +915,15 @@
         <f aca="false">D6+E5</f>
         <v>640000128</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="7" t="n">
         <f aca="false">$E$2-E6</f>
         <v>263359999872</v>
       </c>
+      <c r="G6" s="6"/>
       <c r="T6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -833,7 +932,7 @@
       <c r="B7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="6" t="n">
         <f aca="false">2*8*8*$C$1</f>
         <v>1280000000</v>
       </c>
@@ -841,26 +940,28 @@
         <f aca="false">D7+E6</f>
         <v>1920000128</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="7" t="n">
         <f aca="false">$E$2-E7</f>
         <v>262079999872</v>
       </c>
+      <c r="G7" s="6"/>
       <c r="U7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="n">
         <f aca="false">6*8*8*$C$1</f>
         <v>3840000000</v>
       </c>
@@ -868,11 +969,11 @@
         <f aca="false">D8+E7</f>
         <v>5760000128</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="7" t="n">
         <f aca="false">$E$2-E8</f>
         <v>258239999872</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
@@ -890,16 +991,17 @@
       <c r="L8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -907,20 +1009,22 @@
         <f aca="false">E8+D9</f>
         <v>5760000192</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="7" t="n">
         <f aca="false">$E$2-E9</f>
         <v>258239999808</v>
       </c>
+      <c r="G9" s="6"/>
+      <c r="AK9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="n">
         <f aca="false">8*8*$C$1</f>
         <v>640000000</v>
       </c>
@@ -928,11 +1032,11 @@
         <f aca="false">E9+D10</f>
         <v>6400000192</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="7" t="n">
         <f aca="false">$E$2-E10</f>
         <v>257599999808</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="6" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="0" t="n">
@@ -947,16 +1051,17 @@
       <c r="M10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -964,10 +1069,11 @@
         <f aca="false">E10+D11</f>
         <v>6400000256</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="7" t="n">
         <f aca="false">$E$2-E11</f>
         <v>257599999744</v>
       </c>
+      <c r="G11" s="6"/>
       <c r="N11" s="0" t="n">
         <v>2</v>
       </c>
@@ -977,16 +1083,17 @@
       <c r="AG11" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="n">
         <f aca="false">1*$C$1</f>
         <v>10000000</v>
       </c>
@@ -994,10 +1101,11 @@
         <f aca="false">E11+D12</f>
         <v>6410000256</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="7" t="n">
         <f aca="false">$E$2-E12</f>
         <v>257589999744</v>
       </c>
+      <c r="G12" s="6"/>
       <c r="M12" s="0" t="n">
         <v>2</v>
       </c>
@@ -1007,18 +1115,19 @@
       <c r="AG12" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="6" t="n">
         <f aca="false">2*8*8*$C$1</f>
         <v>1280000000</v>
       </c>
@@ -1026,11 +1135,11 @@
         <f aca="false">E12+D13</f>
         <v>7690000256</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="7" t="n">
         <f aca="false">$E$2-E13</f>
         <v>256309999744</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="6" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="0" t="n">
@@ -1054,16 +1163,17 @@
       <c r="X13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="n">
         <f aca="false">8*8*$C$1</f>
         <v>640000000</v>
       </c>
@@ -1071,10 +1181,11 @@
         <f aca="false">E13+D14</f>
         <v>8330000256</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="7" t="n">
         <f aca="false">$E$2-E14</f>
         <v>255669999744</v>
       </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="0" t="n">
         <v>2</v>
       </c>
@@ -1084,16 +1195,17 @@
       <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="n">
         <f aca="false">8*8*$C$1</f>
         <v>640000000</v>
       </c>
@@ -1101,10 +1213,11 @@
         <f aca="false">E14+D15</f>
         <v>8970000256</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="7" t="n">
         <f aca="false">$E$2-E15</f>
         <v>255029999744</v>
       </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="0" t="n">
         <v>2</v>
       </c>
@@ -1114,13 +1227,14 @@
       <c r="Q15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="n">
         <f aca="false">-D14</f>
         <v>-640000000</v>
       </c>
@@ -1128,23 +1242,25 @@
         <f aca="false">E15+D16</f>
         <v>8330000256</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="7" t="n">
         <f aca="false">$E$2-E16</f>
         <v>255669999744</v>
       </c>
+      <c r="G16" s="6"/>
       <c r="P16" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="AK16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="0" t="n">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -1152,23 +1268,25 @@
         <f aca="false">E16+D17</f>
         <v>8330000320</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="7" t="n">
         <f aca="false">$E$2-E17</f>
         <v>255669999680</v>
       </c>
+      <c r="G17" s="6"/>
       <c r="R17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -1176,23 +1294,25 @@
         <f aca="false">E17+D18</f>
         <v>8330000384</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="7" t="n">
         <f aca="false">$E$2-E18</f>
         <v>255669999616</v>
       </c>
+      <c r="G18" s="6"/>
       <c r="Y18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="n">
         <f aca="false">8*8*$C$1</f>
         <v>640000000</v>
       </c>
@@ -1200,11 +1320,11 @@
         <f aca="false">E18+D19</f>
         <v>8970000384</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="7" t="n">
         <f aca="false">$E$2-E19</f>
         <v>255029999616</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="6" t="n">
         <v>2</v>
       </c>
       <c r="H19" s="0" t="n">
@@ -1225,18 +1345,19 @@
       <c r="Z19" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="6" t="n">
         <f aca="false">$C$1</f>
         <v>10000000</v>
       </c>
@@ -1244,10 +1365,12 @@
         <f aca="false">E19+D20</f>
         <v>8980000384</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="7" t="n">
         <f aca="false">$E$2-E20</f>
         <v>255019999616</v>
       </c>
+      <c r="G20" s="6"/>
+      <c r="AK20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1256,8 +1379,8 @@
       <c r="B21" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="n">
         <f aca="false">2*8*8*$C$1</f>
         <v>1280000000</v>
       </c>
@@ -1265,11 +1388,11 @@
         <f aca="false">E20+D21</f>
         <v>10260000384</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="7" t="n">
         <f aca="false">$E$2-E21</f>
         <v>253739999616</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="6" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="0" t="n">
@@ -1296,16 +1419,17 @@
       <c r="AC21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="0" t="n">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -1313,26 +1437,28 @@
         <f aca="false">E21+D22</f>
         <v>10260000448</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="7" t="n">
         <f aca="false">$E$2-E22</f>
         <v>253739999552</v>
       </c>
+      <c r="G22" s="6"/>
       <c r="T22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="0" t="n">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="n">
         <f aca="false">8*8*$C$1</f>
         <v>640000000</v>
       </c>
@@ -1340,11 +1466,11 @@
         <f aca="false">E22+D23</f>
         <v>10900000448</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="7" t="n">
         <f aca="false">$E$2-E23</f>
         <v>253099999552</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="6" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="0" t="n">
@@ -1359,18 +1485,19 @@
       <c r="AF23" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="6" t="n">
         <f aca="false">1*10^8</f>
         <v>100000000</v>
       </c>
@@ -1378,10 +1505,11 @@
         <f aca="false">E23+D24</f>
         <v>11000000448</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="7" t="n">
         <f aca="false">$E$2-E24</f>
         <v>252999999552</v>
       </c>
+      <c r="G24" s="6"/>
       <c r="AE24" s="0" t="n">
         <v>2</v>
       </c>
@@ -1391,16 +1519,17 @@
       <c r="AH24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AK24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="0" t="n">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="n">
         <f aca="false">2*8*8*$C$1</f>
         <v>1280000000</v>
       </c>
@@ -1408,11 +1537,11 @@
         <f aca="false">E24+D25</f>
         <v>12280000448</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="7" t="n">
         <f aca="false">$E$2-E25</f>
         <v>251719999552</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="6" t="n">
         <v>2</v>
       </c>
       <c r="H25" s="0" t="n">
@@ -1433,16 +1562,17 @@
       <c r="AJ25" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="0" t="n">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="n">
         <f aca="false">10*$C$1</f>
         <v>100000000</v>
       </c>
@@ -1450,22 +1580,24 @@
         <f aca="false">E25+D26</f>
         <v>12380000448</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="7" t="n">
         <f aca="false">$E$2-E26</f>
         <v>251619999552</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="6"/>
+      <c r="AK26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="6" t="n">
         <f aca="false">6*8*8*$C$1</f>
         <v>3840000000</v>
       </c>
@@ -1473,10 +1605,11 @@
         <f aca="false">E26+D27</f>
         <v>16220000448</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="7" t="n">
         <f aca="false">$E$2-E27</f>
         <v>247779999552</v>
       </c>
+      <c r="G27" s="6"/>
       <c r="O27" s="0" t="n">
         <v>2</v>
       </c>
@@ -1504,36 +1637,39 @@
       <c r="AJ27" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AK27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="0" t="n">
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">E27+D28</f>
         <v>16220000448</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="7" t="n">
         <f aca="false">$E$2-E28</f>
         <v>247779999552</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="6"/>
+      <c r="AK28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="0" t="n">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -1541,11 +1677,41 @@
         <f aca="false">E28+D29</f>
         <v>16220000512</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="7" t="n">
         <f aca="false">$E$2-E29</f>
         <v>247779999488</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,11 +1719,11 @@
       <c r="A30" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="0" t="n">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="n">
         <f aca="false">8*8</f>
         <v>64</v>
       </c>
@@ -1565,153 +1731,165 @@
         <f aca="false">E29+D30</f>
         <v>16220000576</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="7" t="n">
         <f aca="false">$E$2-E30</f>
         <v>247779999424</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
+    <row r="31" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="0" t="n">
         <f aca="false">E30+D31</f>
         <v>16220000576</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="7" t="n">
         <f aca="false">$E$2-E31</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="0" t="n">
         <f aca="false">E31+D32</f>
         <v>16220000576</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="7" t="n">
         <f aca="false">$E$2-E32</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="0" t="n">
         <f aca="false">E32+D33</f>
         <v>16220000576</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="7" t="n">
         <f aca="false">$E$2-E33</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="0" t="n">
         <f aca="false">E33+D34</f>
         <v>16220000576</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="7" t="n">
         <f aca="false">$E$2-E34</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="0" t="n">
         <f aca="false">E34+D35</f>
         <v>16220000576</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="7" t="n">
         <f aca="false">$E$2-E35</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="0" t="n">
         <f aca="false">E35+D36</f>
         <v>16220000576</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="7" t="n">
         <f aca="false">$E$2-E36</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="0" t="n">
         <f aca="false">E36+D37</f>
         <v>16220000576</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="7" t="n">
         <f aca="false">$E$2-E37</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="0" t="n">
         <f aca="false">E37+D38</f>
         <v>16220000576</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="7" t="n">
         <f aca="false">$E$2-E38</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="0" t="n">
         <f aca="false">E38+D39</f>
         <v>16220000576</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="7" t="n">
         <f aca="false">$E$2-E39</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="0" t="n">
         <f aca="false">E39+D40</f>
         <v>16220000576</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="7" t="n">
         <f aca="false">$E$2-E40</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="0" t="n">
         <f aca="false">E40+D41</f>
         <v>16220000576</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="7" t="n">
         <f aca="false">$E$2-E41</f>
         <v>247779999424</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="0" t="n">
         <f aca="false">E41+D42</f>
         <v>16220000576</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="7" t="n">
         <f aca="false">$E$2-E42</f>
         <v>247779999424</v>
       </c>
@@ -1720,27 +1898,28 @@
       <c r="A43" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="0" t="n">
         <f aca="false">E42+D43</f>
         <v>16220000576</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="7" t="n">
         <f aca="false">$E$2-E43</f>
         <v>247779999424</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="6" t="n">
         <f aca="false">8*8*$C$1</f>
         <v>640000000</v>
       </c>
@@ -1748,7 +1927,7 @@
         <f aca="false">E43+D44</f>
         <v>16860000576</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="7" t="n">
         <f aca="false">$E$2-E44</f>
         <v>247139999424</v>
       </c>
@@ -1760,30 +1939,31 @@
       <c r="B45" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="0" t="n">
         <f aca="false">E44+D45</f>
         <v>16860000576</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="7" t="n">
         <f aca="false">$E$2-E45</f>
         <v>247139999424</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="0" t="n">
         <f aca="false">E45+D46</f>
         <v>16860000576</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="7" t="n">
         <f aca="false">$E$2-E46</f>
         <v>247139999424</v>
       </c>
@@ -1792,37 +1972,39 @@
       <c r="A47" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="5"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="0" t="n">
         <f aca="false">E46+D47</f>
         <v>16860000576</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="7" t="n">
         <f aca="false">$E$2-E47</f>
         <v>247139999424</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="D48" s="6"/>
       <c r="E48" s="0" t="n">
         <f aca="false">E47+D48</f>
         <v>16860000576</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="7" t="n">
         <f aca="false">$E$2-E48</f>
         <v>247139999424</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2" t="s">
+    <row r="49" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="6" t="n">
         <f aca="false">100*8*8*4*$C$1</f>
         <v>256000000000</v>
       </c>
@@ -1830,21 +2012,21 @@
         <f aca="false">E48+D49</f>
         <v>272860000576</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="7" t="n">
         <f aca="false">$E$2-E49</f>
         <v>-8860000576</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="8" t="n">
         <f aca="false">10*8*4*$C$1</f>
         <v>3200000000</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="9" t="n">
         <f aca="false">E49+D50</f>
         <v>276060000576</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="10" t="n">
         <f aca="false">$E$2-E50</f>
         <v>-12060000576</v>
       </c>
@@ -1905,8 +2087,8 @@
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q24" activeCellId="0" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
